--- a/data/trans_bre/VUL_ANS-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,68%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 11,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 1,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,77; 643,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,16; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,64; 138,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>528,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>109,51%</t>
+          <t>57,68%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 7,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,88</t>
+          <t>-1,32; 3,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,93; 622,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,69; 6508,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,82; 387,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-63,71%</t>
+          <t>117,32%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 5,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 4,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,55</t>
+          <t>-0,13; 5,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,29; 622,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,94; 244,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; 345,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,39%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>176,46%</t>
+          <t>178,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>129,7%</t>
+          <t>98,65%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,74</t>
+          <t>-1,77; 2,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 8,59</t>
+          <t>2,91; 11,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,43</t>
+          <t>0,07; 4,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,01; 200,91</t>
+          <t>-36,76; 78,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 1010,96</t>
+          <t>38,8; 778,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 587,69</t>
+          <t>-10,2; 405,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>204,58%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>155,17%</t>
+          <t>73,72%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,36</t>
+          <t>-1,86; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,31</t>
+          <t>1,9; 10,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,29</t>
+          <t>-0,7; 6,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 392,9</t>
+          <t>-26,84; 75,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,32; 814,48</t>
+          <t>20,47; 201,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 719,54</t>
+          <t>-18,57; 228,72</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>115,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>277,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>229,86%</t>
+          <t>278,21%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,91</t>
+          <t>0,96; 5,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,65</t>
+          <t>-0,99; 10,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,67</t>
+          <t>2,35; 7,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 340,91</t>
+          <t>21,45; 298,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 104,12</t>
+          <t>-21,79; 979,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,15; 701,49</t>
+          <t>69,53; 692,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>160,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>112,21%</t>
+          <t>178,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,41</t>
+          <t>3,07; 8,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,21</t>
+          <t>3,18; 11,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,0</t>
+          <t>-1,75; 3,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 239,99</t>
+          <t>53,71; 364,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,39; 226,53</t>
+          <t>42,02; 453,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 111,39</t>
+          <t>-35,16; 107,2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>76,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>131,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>78,68%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,69</t>
+          <t>1,49; 3,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,1</t>
+          <t>2,44; 6,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,96</t>
+          <t>0,97; 2,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 251,37</t>
+          <t>40,36; 125,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,49; 144,3</t>
+          <t>59,34; 253,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 75,13</t>
+          <t>32,99; 138,16</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,79</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>283,89%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>237,31%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>177,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 7,35</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 9,8</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 6,13</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>94,75; 733,87</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>62,16; 505,92</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>61,63; 396,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5,72</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>10,93%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>116,72%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>149,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 2,88</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 9,08</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 7,04</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-39,7; 92,78</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>36,98; 243,49</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>52,29; 297,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>76,64%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>106,39%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>90,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 2,96</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 5,9</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 3,07</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>32,71; 127,47</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>70,22; 156,57</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>54,69; 137,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/VUL_ANS-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,52</t>
+          <t>-3,63; 1,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 11,42</t>
+          <t>-2,4; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-67,77; 643,8</t>
+          <t>-84,45; 139,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,16; —</t>
+          <t>-64,04; 1488,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>141,3%</t>
+          <t>62,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,71</t>
+          <t>-0,98; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,99</t>
+          <t>0,89; 8,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,93; 622,88</t>
+          <t>-48,01; 361,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 6508,96</t>
+          <t>1,23; 6651,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>186,28%</t>
+          <t>176,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,12</t>
+          <t>0,69; 4,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,53</t>
+          <t>-2,04; 4,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,29; 622,71</t>
+          <t>19,26; 620,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 244,19</t>
+          <t>-38,88; 222,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,34</t>
+          <t>-1,98; 1,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,47</t>
+          <t>3,33; 11,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,76; 78,9</t>
+          <t>-44,8; 65,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,8; 778,78</t>
+          <t>41,46; 878,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,34</t>
+          <t>-1,15; 3,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,15</t>
+          <t>2,55; 10,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 75,23</t>
+          <t>-19,05; 94,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,47; 201,48</t>
+          <t>27,85; 224,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>115,63%</t>
+          <t>120,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,59</t>
+          <t>1,13; 6,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 10,36</t>
+          <t>-1,56; 10,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,45; 298,7</t>
+          <t>13,32; 300,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 979,6</t>
+          <t>-39,36; 859,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>160,57%</t>
+          <t>238,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,51</t>
+          <t>4,41; 9,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,52</t>
+          <t>3,75; 11,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53,71; 364,44</t>
+          <t>99,85; 480,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,02; 453,1</t>
+          <t>48,6; 478,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76,97%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,41</t>
+          <t>1,4; 3,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,74</t>
+          <t>1,9; 6,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,36; 125,03</t>
+          <t>40,23; 119,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,34; 253,65</t>
+          <t>56,02; 236,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_ANS-Edad-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,82</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>117,4%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-40,68%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-32,42%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>143,3%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-40,68%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,66; 9,23</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 1,18</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-3,63; 1,16</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 11,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 1,18</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-67,45; 1292,47</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-91,64; 138,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-84,45; 139,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-64,04; 1488,45</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-91,64; 138,3</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,32</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,92</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>223,12%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>57,68%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>62,32%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>528,12%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>57,68%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,26; 8,07</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 3,81</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,98; 2,95</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 8,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 3,81</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-23,72; 1121,85</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-52,82; 387,22</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-48,01; 361,08</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 6651,63</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-52,82; 387,22</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,4</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>60,61%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>117,32%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>176,39%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>49,98%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>117,32%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,35; 4,56</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 5,01</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,69; 4,32</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 4,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 5,01</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-31,05; 232,6</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 345,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>19,26; 620,21</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-38,88; 222,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-16,31; 345,71</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-0,05</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>73,7%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>98,65%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-1,41%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>178,5%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>98,65%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,02; 7,7</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 4,75</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-1,98; 1,69</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 11,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 4,75</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>10,06; 174,89</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; 405,95</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-44,8; 65,65</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>41,46; 878,82</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,2; 405,95</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>112,33%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>73,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>23,07%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>95,52%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>73,72%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>3,21; 10,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 6,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,15; 3,54</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 10,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 6,17</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>39,32; 253,55</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-18,57; 228,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-19,05; 94,74</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>27,85; 224,95</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-18,57; 228,72</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,91</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>3,79</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,49</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>642,77%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>278,21%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>120,35%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>277,35%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>278,21%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>6,7; 13,17</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 7,02</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,13; 6,33</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 10,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 7,02</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>215,03; 2253,7</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69,53; 692,72</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>13,32; 300,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-39,36; 859,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>69,53; 692,72</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>8,01</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>6,94</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>180,79%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>238,14%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>178,73%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,95; 12,5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 3,1</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>4,41; 9,7</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 11,99</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,75; 3,1</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>53,59; 491,55</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-35,16; 107,2</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>99,85; 480,09</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>48,6; 478,87</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-35,16; 107,2</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>2,31</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>132,67%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>78,68%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>77,01%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>131,19%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>78,68%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3,99; 6,9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 2,94</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,4; 3,18</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 6,38</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 2,94</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>80,84; 206,38</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32,99; 138,16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>40,23; 119,66</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>56,02; 236,29</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>32,99; 138,16</t>
         </is>
       </c>
     </row>
